--- a/officeMapping.xlsx
+++ b/officeMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/nec-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD87B39A-6381-2B44-B08F-AD71227D1B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98476C9-9CB6-F846-B561-9B169E2B12BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -64,10 +64,56 @@
     <t>台東市連航路63號</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>台灣大道</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,131 +498,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C13 A1:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/officeMapping.xlsx
+++ b/officeMapping.xlsx
@@ -1,138 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/nec-backend/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98476C9-9CB6-F846-B561-9B169E2B12BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>台北市南港區園區街3-2號8樓H棟</t>
-  </si>
-  <si>
-    <t>新北市淡水區中正東路二段27號5樓</t>
-  </si>
-  <si>
-    <t>桃園市桃園區龍安街</t>
-  </si>
-  <si>
-    <t>宜蘭市民族路366號2樓之</t>
-  </si>
-  <si>
-    <t>花蓮市國聯一路4</t>
-  </si>
-  <si>
-    <t>新竹市北大路282號</t>
-  </si>
-  <si>
-    <t>台中市府會園道</t>
-  </si>
-  <si>
-    <t>嘉義市中興路353號8樓B室</t>
-  </si>
-  <si>
-    <t>台南市民生路二段307號2</t>
-  </si>
-  <si>
-    <t>高雄市四維三路6號</t>
-  </si>
-  <si>
-    <t>屏東市仁德路58號8樓之2</t>
-  </si>
-  <si>
-    <t>台東市連航路63號</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜蘭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉義</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,23 +42,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -497,163 +374,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>address</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="str">
+        <v>台北市南港區園區街3-2號8樓H棟</v>
+      </c>
+      <c r="C2" t="str">
+        <v>南港</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="str">
+        <v>新北市淡水區中正東路二段27號5樓</v>
+      </c>
+      <c r="C3" t="str">
+        <v>淡水</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="str">
+        <v>桃園市桃園區龍安街</v>
+      </c>
+      <c r="C4" t="str">
+        <v>桃園</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="str">
+        <v>宜蘭市民族路366號2樓之</v>
+      </c>
+      <c r="C5" t="str">
+        <v>宜蘭</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="str">
+        <v>花蓮市國聯一路4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>花蓮</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="str">
+        <v>新竹市北大路282號</v>
+      </c>
+      <c r="C7" t="str">
+        <v>新竹</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="str">
+        <v>台中市府會園道</v>
+      </c>
+      <c r="C8" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="str">
+        <v>嘉義市中興路353號8樓B室</v>
+      </c>
+      <c r="C9" t="str">
+        <v>嘉義</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="str">
+        <v>台南市民生路二段307號2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>台南</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="str">
+        <v>高雄市四維三路6號</v>
+      </c>
+      <c r="C11" t="str">
+        <v>高雄</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="str">
+        <v>屏東市仁德路58號8樓之2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>屏東</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="str">
+        <v>台東市連航路63號</v>
+      </c>
+      <c r="C13" t="str">
+        <v>台東</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>13</v>
       </c>
+      <c r="B14" t="str">
+        <v>彰化八卦山大佛</v>
+      </c>
+      <c r="C14" t="str">
+        <v>彰化</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C13 A1:A13" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>